--- a/Ajuste TFD.xlsx
+++ b/Ajuste TFD.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TFD4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>botao</t>
   </si>
@@ -61,6 +66,12 @@
   </si>
   <si>
     <t>`prioridade</t>
+  </si>
+  <si>
+    <t>Form carro  inserir maca, seguradora chave estrangeira, telefone, vencimento do seguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar o formulario da seguradora </t>
   </si>
 </sst>
 </file>
@@ -108,6 +119,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -155,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,6 +503,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
